--- a/Models/Fed Models/One Model/Similar Words/similar_words.xlsx
+++ b/Models/Fed Models/One Model/Similar Words/similar_words.xlsx
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8044702410697937</v>
+        <v>0.7669572830200195</v>
       </c>
     </row>
     <row r="3">
@@ -479,11 +479,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>demand</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7433267831802368</v>
+        <v>0.7097986340522766</v>
       </c>
     </row>
     <row r="4">
@@ -497,11 +497,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>demand</t>
+          <t>concern</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.7379142642021179</v>
+        <v>0.6822013854980469</v>
       </c>
     </row>
     <row r="5">
@@ -515,11 +515,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>margin</t>
+          <t>mortgage</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.6888371706008911</v>
+        <v>0.6736873388290405</v>
       </c>
     </row>
     <row r="6">
@@ -533,11 +533,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>despite</t>
+          <t>high</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.6828263998031616</v>
+        <v>0.673154890537262</v>
       </c>
     </row>
     <row r="7">
@@ -551,11 +551,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>concern</t>
+          <t>potential</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.6806445717811584</v>
+        <v>0.6590673923492432</v>
       </c>
     </row>
     <row r="8">
@@ -569,11 +569,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>mortgage</t>
+          <t>inventory</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.6709355711936951</v>
+        <v>0.6569727063179016</v>
       </c>
     </row>
     <row r="9">
@@ -587,11 +587,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>potential</t>
+          <t>although</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.6601640582084656</v>
+        <v>0.6566945314407349</v>
       </c>
     </row>
     <row r="10">
@@ -605,11 +605,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>inventory</t>
+          <t>despite</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.657448410987854</v>
+        <v>0.6519894003868103</v>
       </c>
     </row>
     <row r="11">
@@ -623,11 +623,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>buyer</t>
+          <t>because</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.6555473804473877</v>
+        <v>0.6513103842735291</v>
       </c>
     </row>
     <row r="12">
@@ -641,11 +641,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>pressure</t>
+          <t>employment</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.674016535282135</v>
+        <v>0.5911222696304321</v>
       </c>
     </row>
     <row r="13">
@@ -659,11 +659,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>growth</t>
+          <t>pressure</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.6038414239883423</v>
+        <v>0.5860975384712219</v>
       </c>
     </row>
     <row r="14">
@@ -677,11 +677,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>nonlabor</t>
+          <t>upward</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.601862907409668</v>
+        <v>0.575556218624115</v>
       </c>
     </row>
     <row r="15">
@@ -695,11 +695,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>contact</t>
+          <t>growth</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.5967466831207275</v>
+        <v>0.5642092227935791</v>
       </c>
     </row>
     <row r="16">
@@ -713,11 +713,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>interest</t>
+          <t>however</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.5815044045448303</v>
+        <v>0.5639440417289734</v>
       </c>
     </row>
     <row r="17">
@@ -731,11 +731,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>uncertainty</t>
+          <t>contact</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.5787616968154907</v>
+        <v>0.5597914457321167</v>
       </c>
     </row>
     <row r="18">
@@ -749,11 +749,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>price</t>
+          <t>increase</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.5741820335388184</v>
+        <v>0.5471316576004028</v>
       </c>
     </row>
     <row r="19">
@@ -767,11 +767,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>employment</t>
+          <t>overall</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.5740011930465698</v>
+        <v>0.5403355360031128</v>
       </c>
     </row>
     <row r="20">
@@ -785,11 +785,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>increase</t>
+          <t>balance</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.5725662708282471</v>
+        <v>0.5332819819450378</v>
       </c>
     </row>
     <row r="21">
@@ -803,11 +803,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>rise</t>
+          <t>continue</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.5664179921150208</v>
+        <v>0.5286637544631958</v>
       </c>
     </row>
     <row r="22">
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.556846022605896</v>
+        <v>0.5767127275466919</v>
       </c>
     </row>
     <row r="23">
@@ -839,11 +839,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>plan</t>
+          <t>capital</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.5385815501213074</v>
+        <v>0.534135639667511</v>
       </c>
     </row>
     <row r="24">
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.5307903289794922</v>
+        <v>0.5193997025489807</v>
       </c>
     </row>
     <row r="25">
@@ -875,11 +875,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>capital</t>
+          <t>technology</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.51317298412323</v>
+        <v>0.5183722376823425</v>
       </c>
     </row>
     <row r="26">
@@ -893,11 +893,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>upgrade</t>
+          <t>expenditure</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.5114215016365051</v>
+        <v>0.5148558020591736</v>
       </c>
     </row>
     <row r="27">
@@ -911,11 +911,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>look</t>
+          <t>plan</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.5093832612037659</v>
+        <v>0.4955677688121795</v>
       </c>
     </row>
     <row r="28">
@@ -929,11 +929,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>packing</t>
+          <t>develop</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.4965564012527466</v>
+        <v>0.4913558959960937</v>
       </c>
     </row>
     <row r="29">
@@ -947,11 +947,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>strategy</t>
+          <t>development</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.4932117760181427</v>
+        <v>0.4828211069107055</v>
       </c>
     </row>
     <row r="30">
@@ -965,11 +965,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>because</t>
+          <t>comply</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.4910938441753387</v>
+        <v>0.4719538390636444</v>
       </c>
     </row>
     <row r="31">
@@ -983,11 +983,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>expenditure</t>
+          <t>respirator</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.4910443723201751</v>
+        <v>0.4682314097881317</v>
       </c>
     </row>
     <row r="32">
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.621696412563324</v>
+        <v>0.6720280647277832</v>
       </c>
     </row>
     <row r="33">
@@ -1019,11 +1019,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>position</t>
+          <t>occupation</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.5133033990859985</v>
+        <v>0.5966830253601074</v>
       </c>
     </row>
     <row r="34">
@@ -1037,11 +1037,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>occupation</t>
+          <t>worker</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.5087122917175293</v>
+        <v>0.5698993802070618</v>
       </c>
     </row>
     <row r="35">
@@ -1055,11 +1055,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>worker</t>
+          <t>position</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.5012181997299194</v>
+        <v>0.5390143394470215</v>
       </c>
     </row>
     <row r="36">
@@ -1073,11 +1073,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>spokesman</t>
+          <t>skill</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.4978886246681213</v>
+        <v>0.535441517829895</v>
       </c>
     </row>
     <row r="37">
@@ -1091,11 +1091,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>carpentry</t>
+          <t>engineer</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.4942091107368469</v>
+        <v>0.5307133793830872</v>
       </c>
     </row>
     <row r="38">
@@ -1109,11 +1109,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>tradespeople</t>
+          <t>programmer</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.4933512806892395</v>
+        <v>0.5272024869918823</v>
       </c>
     </row>
     <row r="39">
@@ -1127,11 +1127,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>mechanic</t>
+          <t>hourly</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.4925858378410339</v>
+        <v>0.5150139331817627</v>
       </c>
     </row>
     <row r="40">
@@ -1145,11 +1145,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>MinneapolisSt</t>
+          <t>tradespeople</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.4884536564350128</v>
+        <v>0.5116386413574219</v>
       </c>
     </row>
     <row r="41">
@@ -1163,11 +1163,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>specialist</t>
+          <t>assistant</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.4843039512634277</v>
+        <v>0.5057680606842041</v>
       </c>
     </row>
     <row r="42">
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.6371050477027893</v>
+        <v>0.6335276365280151</v>
       </c>
     </row>
     <row r="43">
@@ -1199,11 +1199,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>uncertainty</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.5598322749137878</v>
+        <v>0.6159318089485168</v>
       </c>
     </row>
     <row r="44">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.5473671555519104</v>
+        <v>0.5981963872909546</v>
       </c>
     </row>
     <row r="45">
@@ -1239,7 +1239,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.5365110635757446</v>
+        <v>0.5845582485198975</v>
       </c>
     </row>
     <row r="46">
@@ -1253,11 +1253,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>outlook</t>
+          <t>regard</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.5347588658332825</v>
+        <v>0.5608965754508972</v>
       </c>
     </row>
     <row r="47">
@@ -1271,11 +1271,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>express</t>
+          <t>uncertainty</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.5295754075050354</v>
+        <v>0.55103999376297</v>
       </c>
     </row>
     <row r="48">
@@ -1289,11 +1289,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>whether</t>
+          <t>outlook</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.5282407999038696</v>
+        <v>0.5505427122116089</v>
       </c>
     </row>
     <row r="49">
@@ -1307,11 +1307,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>political</t>
+          <t>weak</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.5281850695610046</v>
+        <v>0.5421721339225769</v>
       </c>
     </row>
     <row r="50">
@@ -1325,11 +1325,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>regard</t>
+          <t>whether</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.5224519968032837</v>
+        <v>0.5401925444602966</v>
       </c>
     </row>
     <row r="51">
@@ -1343,11 +1343,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>express</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.5197375416755676</v>
+        <v>0.5181381702423096</v>
       </c>
     </row>
   </sheetData>
